--- a/proposal_extract/Radicle.xlsx
+++ b/proposal_extract/Radicle.xlsx
@@ -895,7 +895,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Created 3 months ago</t>
+          <t>Created 4 months ago</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Created 3 months ago</t>
+          <t>Created 4 months ago</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Created 4 months ago</t>
+          <t>Created 5 months ago</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Created 4 months ago</t>
+          <t>Created 5 months ago</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Created 5 months ago</t>
+          <t>Created 6 months ago</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Created 8 months ago</t>
+          <t>Created 9 months ago</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Created 9 months ago</t>
+          <t>Created 10 months ago</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Created 10 months ago</t>
+          <t>Created a year ago</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Created 10 months ago</t>
+          <t>Created a year ago</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
